--- a/public_html/DOC/Taches.xlsx
+++ b/public_html/DOC/Taches.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perrinlu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projet_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956BD757-E72C-44A9-BBCF-00602919CACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15351D96-110C-4508-B0DE-70BB8FC7D160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -64,9 +64,6 @@
     <t>&gt;&gt;&gt;</t>
   </si>
   <si>
-    <t>Affiche un JSON en table</t>
-  </si>
-  <si>
     <t>1.2</t>
   </si>
   <si>
@@ -227,6 +224,45 @@
   </si>
   <si>
     <t>Sauvegarder cette variable en .JSON</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Ludovic</t>
+  </si>
+  <si>
+    <t>page de connexion</t>
+  </si>
+  <si>
+    <t>page de creation de compte</t>
+  </si>
+  <si>
+    <t>Christer</t>
+  </si>
+  <si>
+    <t>Titouan</t>
+  </si>
+  <si>
+    <t>TItouan</t>
+  </si>
+  <si>
+    <t>afficher la toile</t>
+  </si>
+  <si>
+    <t>Récupérer le json et le mettre en table</t>
+  </si>
+  <si>
+    <t>plusieur couleur pour le dessin sur la toile</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>Créer une page admin</t>
   </si>
 </sst>
 </file>
@@ -236,7 +272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -254,6 +290,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -347,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -371,12 +413,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -400,6 +436,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -784,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +844,7 @@
     <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
     <col min="12" max="1025" width="10.7109375" customWidth="1"/>
@@ -837,17 +882,19 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="19"/>
+        <v>64</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="17"/>
       <c r="F2" s="5">
         <v>45759</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G2" s="20">
+        <v>45760</v>
+      </c>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -856,112 +903,122 @@
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="16"/>
       <c r="F3" s="5">
         <v>45759</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G3" s="20">
+        <v>45767</v>
+      </c>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="16"/>
       <c r="F4" s="5">
         <v>45759</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G4" s="20">
+        <v>45767</v>
+      </c>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="17"/>
       <c r="F5" s="5">
         <v>45759</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="H5" s="3"/>
       <c r="J5" s="7"/>
       <c r="K5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="5">
+        <v>45759</v>
+      </c>
+      <c r="G6" s="20">
+        <v>45760</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="J6" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="5">
-        <v>45759</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="5">
+        <v>45759</v>
+      </c>
+      <c r="G7" s="20">
+        <v>45761</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="J7" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5">
-        <v>45759</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -977,13 +1034,13 @@
         <v>9</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="18"/>
+        <v>21</v>
+      </c>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -1001,7 +1058,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -1019,7 +1076,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -1037,7 +1094,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -1055,7 +1112,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -1073,7 +1130,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
@@ -1092,32 +1149,30 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="19"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="5">
         <v>45759</v>
       </c>
       <c r="G15" s="5">
         <v>45760</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
@@ -1130,13 +1185,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
@@ -1149,441 +1204,488 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="17"/>
       <c r="F18" s="5">
         <v>45759</v>
       </c>
       <c r="G18" s="5">
         <v>45760</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="16"/>
       <c r="F19" s="5">
         <v>45759</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G19" s="21">
+        <v>45761</v>
+      </c>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="16"/>
       <c r="F20" s="5">
         <v>45759</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G20" s="20">
+        <v>45770</v>
+      </c>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="16"/>
       <c r="F21" s="5">
         <v>45759</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G21" s="20">
+        <v>45771</v>
+      </c>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
+      <c r="C22" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="16"/>
       <c r="F22" s="5">
         <v>45759</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G22" s="20">
+        <v>45771</v>
+      </c>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
+      <c r="C23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="16"/>
       <c r="F23" s="5">
         <v>45759</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G23" s="20">
+        <v>45767</v>
+      </c>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5">
-        <v>45759</v>
+        <v>45775</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="5">
-        <v>45759</v>
-      </c>
-      <c r="G26" s="5">
-        <v>45760</v>
-      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="5">
+        <v>45759</v>
+      </c>
+      <c r="G27" s="5">
+        <v>45760</v>
+      </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>4</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>49</v>
+        <v>3</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="13"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>5</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="13"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="20">
+        <v>45776</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="20">
+        <v>45776</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="20">
+        <v>45776</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="13"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="13"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="20">
+        <v>45776</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="20">
+        <v>45776</v>
+      </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>13</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="13"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>14</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>59</v>
+        <v>13</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="13"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39" s="3"/>
-      <c r="E39" s="13"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="13"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>17</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="13"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="13"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="13"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="13"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>20</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1604,17 +1706,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/public_html/DOC/Taches.xlsx
+++ b/public_html/DOC/Taches.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -134,13 +134,13 @@
     <t xml:space="preserve">S’accorder sur une palette de couleur</t>
   </si>
   <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.13</t>
   </si>
   <si>
     <t xml:space="preserve">Créer style.css commun pour toutes les pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">1.14</t>
@@ -417,6 +417,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,11 +445,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -465,7 +465,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -553,7 +553,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -678,9 +678,11 @@
       <c r="F5" s="5" t="n">
         <v>45759</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="9" t="n">
+        <v>45767</v>
+      </c>
       <c r="H5" s="3"/>
-      <c r="J5" s="9"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="3" t="s">
         <v>19</v>
       </c>
@@ -698,7 +700,7 @@
       <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="5" t="n">
         <v>45759</v>
       </c>
@@ -706,10 +708,10 @@
         <v>45760</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="12"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -732,10 +734,10 @@
         <v>45761</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="13"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -746,13 +748,13 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="14"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="5" t="n">
         <v>45759</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="12" t="s">
         <v>28</v>
       </c>
       <c r="K8" s="8"/>
@@ -766,7 +768,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="5" t="n">
         <v>45759</v>
       </c>
@@ -780,9 +782,9 @@
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="5" t="n">
         <v>45759</v>
       </c>
@@ -798,7 +800,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="5" t="n">
         <v>45759</v>
       </c>
@@ -814,7 +816,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="14"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="5" t="n">
         <v>45759</v>
       </c>
@@ -830,7 +832,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="5" t="n">
         <v>45759</v>
       </c>
@@ -846,7 +848,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="14"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="5" t="n">
         <v>45759</v>
       </c>
@@ -861,7 +863,9 @@
       <c r="C15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="5" t="n">
         <v>45759</v>
@@ -871,26 +875,29 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="16"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="5" t="n">
         <v>45759</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="16" t="n">
+        <v>45775</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -900,14 +907,17 @@
       <c r="C17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="16"/>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="8"/>
       <c r="F17" s="5" t="n">
         <v>45759</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="G17" s="16" t="n">
+        <v>45778</v>
+      </c>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -1041,7 +1051,7 @@
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -1051,12 +1061,16 @@
       <c r="C24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="16"/>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="8"/>
       <c r="F24" s="5" t="n">
         <v>45775</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="9" t="n">
+        <v>45777</v>
+      </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1064,7 +1078,7 @@
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1074,7 +1088,7 @@
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="5"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1162,13 +1176,13 @@
         <v>61</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="16"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="6" t="n">
         <v>45776</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,13 +1196,13 @@
         <v>61</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="16"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="6" t="n">
         <v>45776</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1234,13 +1248,13 @@
         <v>61</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="6" t="n">
         <v>45776</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1254,13 +1268,13 @@
         <v>61</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="6" t="n">
         <v>45776</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1270,7 +1284,7 @@
       <c r="B37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D37" s="3"/>
